--- a/Bausch_KMV.xlsx
+++ b/Bausch_KMV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurja Newatia\Desktop\Mathematical Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurja Newatia\Documents\GitHub\Mathematical-Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346DBB0A-AAFD-4C74-A28F-617C830FBC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AD7DA7-7F3C-431C-B882-094D42941A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Y1" sheetId="1" r:id="rId1"/>
@@ -251,10 +251,10 @@
     <t>PD</t>
   </si>
   <si>
-    <t>Credit Metrics PD</t>
+    <t>KMV Model PD</t>
   </si>
   <si>
-    <t>KMV Model PD</t>
+    <t>Credit Metrics PD (Values taken from R File)</t>
   </si>
 </sst>
 </file>
@@ -268,11 +268,18 @@
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,51 +360,52 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -587,7 +595,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Credit Metrics PD</c:v>
+                  <c:v>Credit Metrics PD (Values taken from R File)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3124,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -30704,8 +30712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D166350E-E14A-421A-AB16-1B31B61883C8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30718,10 +30726,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
